--- a/HRRP.xlsx
+++ b/HRRP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文献\HRRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学位论文实验\文献\HRRP\HRRP-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370391D0-6238-4F7C-834F-3094C67FA674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D160F6B-D53B-4083-9FAC-3920832F4105}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B3184C45-0D49-4413-B1DA-51B6727D6145}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="187">
   <si>
     <t>序号</t>
   </si>
@@ -853,14 +853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Self-Supervised Transformer for Sparse and Irregularly Sampled Multivariate Clinical Time-Series</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TKDD（CCFB)顶刊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KDD（CCFB）顶刊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1049,6 +1041,32 @@
     <t>①马氏距离重建信号
 ②KL散度
 ③F范数做约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPAMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金字塔池化，FFN，transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①FFN用卷积（IRB）增强局部特征；
+②金字塔池化，降低复杂度，通过提取上下文信息并利用具有不同
+感受域的多层池化操作在输入特征上进行多尺度运算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,6 +1408,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1712,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB1772F-312F-4205-8D55-34FE257FD712}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I37:I39"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1763,10 +1784,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
@@ -2065,7 +2086,7 @@
         <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>64</v>
@@ -2204,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C18" s="1">
         <v>4.2</v>
@@ -2335,7 +2356,7 @@
         <v>2021</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>124</v>
@@ -2352,7 +2373,7 @@
         <v>129</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>130</v>
@@ -2422,7 +2443,7 @@
         <v>146</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25">
@@ -2430,25 +2451,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="F26" s="33" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>155</v>
       </c>
       <c r="G26" s="1">
         <v>2022</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="71.25">
@@ -2456,22 +2477,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G27" s="1">
         <v>2021</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2479,25 +2500,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G28" s="1">
         <v>2021</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2505,10 +2526,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>30</v>
@@ -2517,7 +2538,7 @@
         <v>2021</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2525,22 +2546,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G30" s="1">
         <v>2021</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="42.75">
@@ -2548,30 +2569,48 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="G31" s="1">
         <v>2017</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="42.75">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="D32" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>148</v>
+      <c r="E32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/HRRP.xlsx
+++ b/HRRP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学位论文实验\文献\HRRP\HRRP-paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D160F6B-D53B-4083-9FAC-3920832F4105}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA644BF-5EB8-4618-A2DB-389241D8B656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B3184C45-0D49-4413-B1DA-51B6727D6145}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="212">
   <si>
     <t>序号</t>
   </si>
@@ -962,10 +962,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精度（还没读代码）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一个基于transforemer的无监督通用预训练模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,10 +1040,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P2T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,6 +1059,124 @@
     <t>①FFN用卷积（IRB）增强局部特征；
 ②金字塔池化，降低复杂度，通过提取上下文信息并利用具有不同
 感受域的多层池化操作在输入特征上进行多尺度运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.Dynamic Convolution：Attention over Convolution Kernels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microsoft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态卷积、DY-CONV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①对卷积核加权
+②带温度的Softmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①动态卷积的做法；
+②为什么要动态卷积；
+③为什么要带温度的softmax；
+④为什么要softmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.CondConv： Conditionally Parameterized Convolutions for Efficient Inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CondConv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①第一个提出动态卷积
+②分析方法很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuaWei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DyConv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.DYNET: DYNAMIC CONVOLUTION FOR ACCELERATING CONVOLUTIONAL NEURAL NETWORKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arxiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①动态卷积
+②系数预测模块，其实就是SE注意力
+③提出卷积核相关性是卷积滤除噪声的重要原因，并给出相关数学推导
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoupled Dynamic Filter Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①空间和通道都做了动态卷积
+②不像Dyconv、Condconv是半动态卷积
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有新的注意力，可以赶紧抄，就成动态了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.ON THE CONNECTION BETWEEN LOCAL ATTENTION AND DYNAMIC DEPTH-WISE CONVOLUTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部注意力和深度动态卷积间的关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,7 +1414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,6 +1518,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1733,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB1772F-312F-4205-8D55-34FE257FD712}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1784,10 +1897,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
@@ -2225,7 +2338,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="1">
         <v>4.2</v>
@@ -2356,7 +2469,7 @@
         <v>2021</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>124</v>
@@ -2477,7 +2590,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>148</v>
@@ -2489,10 +2602,10 @@
         <v>2021</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K27" s="30" t="s">
         <v>163</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2518,7 +2631,7 @@
         <v>161</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2526,10 +2639,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>30</v>
@@ -2538,7 +2651,7 @@
         <v>2021</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2546,22 +2659,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G30" s="1">
         <v>2021</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="42.75">
@@ -2569,22 +2682,22 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G31" s="1">
         <v>2017</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="35" t="s">
         <v>179</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="42.75">
@@ -2592,25 +2705,158 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G32" s="1">
         <v>2022</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="57">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="D33" s="1" t="s">
         <v>186</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="28.5">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="57">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="42.75">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/HRRP.xlsx
+++ b/HRRP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学位论文实验\文献\HRRP\HRRP-paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文献\HRRP\1月份看完\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA644BF-5EB8-4618-A2DB-389241D8B656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D50030-2562-45F5-BD46-7F85FD751B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{B3184C45-0D49-4413-B1DA-51B6727D6145}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21573" windowHeight="7893" xr2:uid="{B3184C45-0D49-4413-B1DA-51B6727D6145}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="221">
   <si>
     <t>序号</t>
   </si>
@@ -1179,6 +1179,47 @@
     <t>局部注意力和深度动态卷积间的关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ICLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.Omni-Dimensional Dynamic Convolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多维度动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①多头注意力；
+②在输入通道，输出通道，空间，卷积核四个维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.DynamicViT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dy Transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①动态减少每个阶段的Token数量；
+②Gumbel-Softmax产生二值矩阵，避免不可微分问题；
+③不会直接抛弃不需要的Token，而是用Mask矩阵把不需要的Token Mask掉，
+从而保持一个Batch里所有样本结构一致，有利于并行；
+④全局特征可以保留目标的上下文信息，而局部特征保留了某些局部特征信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1414,7 +1455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1518,6 +1559,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1846,29 +1893,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB1772F-312F-4205-8D55-34FE257FD712}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="32.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="136.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="47.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="69.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="46.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="155.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="57.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="106.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="44.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.76171875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.64453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.87890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="136.46875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.64453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.46875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.3515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.87890625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="69.1171875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="46.76171875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="155.1171875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="57.46875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="106.1171875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="44.46875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1171875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1897,10 +1944,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
@@ -1963,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15">
+    <row r="4" spans="1:15" ht="16.350000000000001">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2009,7 +2056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="57">
+    <row r="6" spans="1:15" ht="56">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2113,7 +2160,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.5">
+    <row r="10" spans="1:15" ht="28">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2304,7 +2351,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="71.25">
+    <row r="17" spans="1:13" ht="70">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2333,7 +2380,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="42.75">
+    <row r="18" spans="1:13" ht="56">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2365,7 +2412,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="14.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2394,7 +2441,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="114">
+    <row r="20" spans="1:13" ht="112">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2423,7 +2470,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="99.75">
+    <row r="21" spans="1:13" ht="98">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2449,7 +2496,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="28.5">
+    <row r="22" spans="1:13" ht="28">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2475,7 +2522,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>140</v>
       </c>
@@ -2504,7 +2551,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="99.75">
+    <row r="24" spans="1:13" ht="98">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2530,7 +2577,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="99.75">
+    <row r="25" spans="1:13" ht="98">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2559,7 +2606,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17.25">
+    <row r="26" spans="1:13" ht="17.350000000000001">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2585,7 +2632,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="71.25">
+    <row r="27" spans="1:13" ht="84">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2677,7 +2724,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="42.75">
+    <row r="31" spans="1:13" ht="42">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2700,7 +2747,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="42.75">
+    <row r="32" spans="1:13" ht="42">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2726,7 +2773,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="57">
+    <row r="33" spans="1:11" ht="56">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2755,7 +2802,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="28.5">
+    <row r="34" spans="1:11" ht="28">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2781,7 +2828,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="57">
+    <row r="35" spans="1:11" ht="56">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2807,7 +2854,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="42.75">
+    <row r="36" spans="1:11" ht="42">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2857,6 +2904,55 @@
       </c>
       <c r="H37" s="1" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="28">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="70">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/HRRP.xlsx
+++ b/HRRP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文献\HRRP\1月份看完\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D50030-2562-45F5-BD46-7F85FD751B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BDE4C3-6752-4886-B825-9F70F4163D60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21573" windowHeight="7893" xr2:uid="{B3184C45-0D49-4413-B1DA-51B6727D6145}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="238">
   <si>
     <t>序号</t>
   </si>
@@ -1220,6 +1220,80 @@
 ④全局特征可以保留目标的上下文信息，而局部特征保留了某些局部特征信息；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.Combining max-pooling and wavelet pooling strategies for semantic image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESWA（一区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max pooling and Wavelet pooling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①Max pooling保留了相关信息最大的特征；
+②Wavelet pooling保留特征流动的同时，也降维了；
+③1X1卷积汇聚特征；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MWCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①用小波保留了信息流动；
+②与传统 CNN 相比，DWT 的频率和位置特性也有望有利于细节纹理的保存；
+③MWCNN 可以扩大感受野，在效率和性能之间取得更好的权衡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.Multi-level_Wavelet-CNN_for_Image_Restoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.Multiple Wavelet Pooling for CNNs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECCV Workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple Wavelet Pooling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①联合多个小波，通道上拼接；
+②普通池化是信息丢失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.WaveCNet：Wavelet Integrated CNNs to Suppress Aliasing Effect for Noise-Robust Image Classification</t>
+  </si>
+  <si>
+    <t>TIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaveCNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①最大池化，平均池化，跨步卷积池化不符合奈奎斯特定理，会丢失结构信息；
+②对比实验可以加个小波降噪作为预处理的；
+③提供了1D小波变换的代码；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1455,7 +1529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1559,6 +1633,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1893,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB1772F-312F-4205-8D55-34FE257FD712}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="G40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1944,10 +2021,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="40"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
@@ -2953,6 +3030,98 @@
       </c>
       <c r="I39" s="39" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="42">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="42">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="28">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="42">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/HRRP.xlsx
+++ b/HRRP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文献\HRRP\1月份看完\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BDE4C3-6752-4886-B825-9F70F4163D60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979AC0B4-2D5C-4215-85BF-C06A6D1FFA3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21573" windowHeight="7893" xr2:uid="{B3184C45-0D49-4413-B1DA-51B6727D6145}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="258">
   <si>
     <t>序号</t>
   </si>
@@ -1292,6 +1292,88 @@
     <t>①最大池化，平均池化，跨步卷积池化不符合奈奎斯特定理，会丢失结构信息；
 ②对比实验可以加个小波降噪作为预处理的；
 ③提供了1D小波变换的代码；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wavelet Convolutional</t>
+  </si>
+  <si>
+    <t>Wavelet Convolutional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.Wavelet Convolutional Neural Networks for Texture Classification</t>
+  </si>
+  <si>
+    <t>①纹理分类；
+②用跨步池化与小波分解结合，小波分解是从原始图像分解的；
+③因为纹理分类里，平均池化会更有用点，理论上证明Harr小波的低通分量，就是平均池化；
+④这里有个问题是，高频部分没看出怎么用的；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.Wavelet Convolutional Neural Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①和上面的差不多，同个作者；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.WAVELET POOLING FOR CONVOLUTIONAL NEURAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①小波池化和其他池化的对比，过拟合等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46.Wave-ViT：Unifying Wavelet and Transformers for Visual Representation Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wavelet-Vit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①首次在Vit尝试小波池化；
+②提出小波注意力机制，就是小波分解K,V；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.基于小波变换的雷达高分辨距离像识别_马建华</t>
+  </si>
+  <si>
+    <t>西电学报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小波下采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①小波变换；
+②使用KL散度来衡量分解后的成分的类间类内，选择合适成分；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1529,7 +1611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1633,6 +1715,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1970,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB1772F-312F-4205-8D55-34FE257FD712}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2021,10 +2106,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
@@ -3122,6 +3207,121 @@
       </c>
       <c r="I43" s="40" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="70">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2017</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I44" s="41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="28">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I47" s="41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="28">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/HRRP.xlsx
+++ b/HRRP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文献\HRRP\1月份看完\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979AC0B4-2D5C-4215-85BF-C06A6D1FFA3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B112A7CB-ED51-4063-B2E8-9F664B82DFA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21573" windowHeight="7893" xr2:uid="{B3184C45-0D49-4413-B1DA-51B6727D6145}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="294">
   <si>
     <t>序号</t>
   </si>
@@ -1374,6 +1374,158 @@
   <si>
     <t>①小波变换；
 ②使用KL散度来衡量分解后的成分的类间类内，选择合适成分；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.Wavelet-Attention CNN for Image Classification</t>
+  </si>
+  <si>
+    <t>Wavelet Convolutional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①创新好少，就只对高频分量处理；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.Global Filter Networks for Image Classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①变换到频域上，对频域学习，再换回空间域；
+②效率高；
+③MLP引入的归纳偏置更少，所以能从原始数据学习到更通用更灵活的空间位置之间的相互作用；
+③频域的归纳偏置要求不高，可以在全局对信息交互，也可以局部信息交互；
+④学习到频域与位置的关系；
+⑤这个模型倾向于学习频域信息，而不是空间域信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.FcaNet：Frequency Channel Attention Networks</t>
+  </si>
+  <si>
+    <t>NIPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FcaNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①将通道注意力的GAP视作一个信息压缩量问题；
+②找到有效成分；
+③GAP压缩的会导致冗余通道学到相同的信息，DCT变换后可以从冗余通道找到不同的信息；
+④根据成分重要性，挑选频率；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.Dual Wavelet Attention Networks for Image Classification</t>
+  </si>
+  <si>
+    <t>D Wavelet attension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①将图片分解成四个成分，通道是加在一起学习，空间是低通和相加在一起后的高通拼在一起
+②</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.Conformer：Local Features Coupling Global Representations for Visual Recognition</t>
+  </si>
+  <si>
+    <t>CVPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①双支路，一条学全局，一条学局部（纹理轮廓等）；
+②FCU模块将这两条支路的信息流动短路；
+③将图像patch化会导致导致局部细节丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①将卷积学习到的特征送到Transformer可能引起自注意力与特征的不匹配；
+②因为浅层偏向局部特征，深层偏向全局特征，所以在前期有局部特征和全局特征的交互就好；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAFORMER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.MAFormer：A Transformer Network with Multi-scale Attention Fusion for Visual Recognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.MixFormer：Mixing Features across Windows and Dimensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MixFormer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①局部和全局并行交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.MRA_Attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华盛顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRA_Attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①用小波变换代替自注意力矩阵，没看懂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +1763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1715,6 +1867,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2055,10 +2213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB1772F-312F-4205-8D55-34FE257FD712}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="F53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2106,10 +2264,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
@@ -2890,6 +3048,9 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>174</v>
       </c>
@@ -3322,6 +3483,199 @@
       </c>
       <c r="I48" s="41" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="98">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" s="42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="70">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I50" s="42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="42">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I51" s="42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="42">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="42">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I54" s="43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/HRRP.xlsx
+++ b/HRRP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文献\HRRP\1月份看完\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B112A7CB-ED51-4063-B2E8-9F664B82DFA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6B4224-07EE-42B7-A7CD-4E893CA1369D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21573" windowHeight="7893" xr2:uid="{B3184C45-0D49-4413-B1DA-51B6727D6145}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="312">
   <si>
     <t>序号</t>
   </si>
@@ -1505,10 +1505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>粗度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>55.MRA_Attention</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1526,6 +1522,83 @@
   </si>
   <si>
     <t>①用小波变换代替自注意力矩阵，没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.MRSFORMER：transformers_with_multiresolut</t>
+  </si>
+  <si>
+    <t>粗读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSRFORMER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①注意力矩阵用小波分解降维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACMIXER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①也是两条支路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57.On the Integration of Self-Attention and Convolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58.CMT：Convolutional Neural Networks Meet Vision Transformers</t>
+  </si>
+  <si>
+    <t>CMTformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①ConvStem;
+②FFN有创新；
+③Conv 2*2做下采样；
+④LPU模块；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59.Enhancing the locality and breaking the memory bottleneck of transformer on time series forecasting</t>
+  </si>
+  <si>
+    <t>NIPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogSparse Attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①使用因果卷积映射QKV，因为卷积对偶现的异常点有较好的平滑作用；
+②稀疏注意力；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1763,7 +1836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1867,6 +1940,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2213,17 +2292,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB1772F-312F-4205-8D55-34FE257FD712}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="32.76171875" style="1" customWidth="1"/>
     <col min="2" max="2" width="52.64453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.87890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.87890625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="136.46875" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.64453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.46875" style="1" customWidth="1"/>
@@ -2264,10 +2343,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
@@ -3657,25 +3736,123 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="G56" s="1">
         <v>2022</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>293</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="56">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I59" s="44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="28">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/HRRP.xlsx
+++ b/HRRP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文献\HRRP\1月份看完\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6B4224-07EE-42B7-A7CD-4E893CA1369D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBEEFC1-7EC3-4E2C-A947-5AA300DB3DBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21573" windowHeight="7893" xr2:uid="{B3184C45-0D49-4413-B1DA-51B6727D6145}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="334">
   <si>
     <t>序号</t>
   </si>
@@ -1599,6 +1599,96 @@
   <si>
     <t>①使用因果卷积映射QKV，因为卷积对偶现的异常点有较好的平滑作用；
 ②稀疏注意力；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv Stem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①第一篇发现Conv Stem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69.Early Convolutions Help Transformers See Better</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.CC-Loss： Channel Correlation Loss For Image Classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC-Loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①损失函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①优化器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70.Lightweight_Transformer_Network_for_Ship_HRRP_Targ</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightTransformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①学习下数据集咋描述吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65.Adan： Adaptive Nesterov Momentum Algorithm for Faster Optimizing Deep Models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.Target-attentional CNN for Radar Automatic Target Recognition with HRRP</t>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TACNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①大多数HRRP识别不会去区分目标区和非目标区；
+②RNN的方法会在非目标区也包含目标区的信息；
+③最大池化可以增大卷积的感受野；
+④类间类外比值这个衡量标准也可以搞搞；
+⑤做了方位敏感性实验，抗噪实验；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1836,7 +1926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1940,6 +2030,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1984,6 +2077,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2003,7 +2164,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2292,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB1772F-312F-4205-8D55-34FE257FD712}">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2343,10 +2504,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="47"/>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
@@ -3853,6 +4014,121 @@
       </c>
       <c r="I60" s="45" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="70">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I68" s="46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
